--- a/development_files/algorithms/VolumeToTbs_units.xlsx
+++ b/development_files/algorithms/VolumeToTbs_units.xlsx
@@ -9,95 +9,1274 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mivtkRonNucPb0ELphk3dvQ0eNgUA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miwFv1NCTLDIY9+nqOZUioouWIHsw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
   <si>
     <t>ingredient</t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
     <t>tablespoon</t>
   </si>
   <si>
+    <t>acai berry</t>
+  </si>
+  <si>
+    <t>acorn squash</t>
+  </si>
+  <si>
+    <t>almond</t>
+  </si>
+  <si>
+    <t>amaretti cookies</t>
+  </si>
+  <si>
+    <t>amaretto</t>
+  </si>
+  <si>
+    <t>amberjack</t>
+  </si>
+  <si>
+    <t>american cheese</t>
+  </si>
+  <si>
+    <t>anaheim pepper</t>
+  </si>
+  <si>
+    <t>ancho chili pepper</t>
+  </si>
+  <si>
+    <t>andouille</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>apricot</t>
+  </si>
+  <si>
+    <t>arbol chile pepper</t>
+  </si>
+  <si>
+    <t>arctic char</t>
+  </si>
+  <si>
+    <t>artichoke heart</t>
+  </si>
+  <si>
+    <t>arugula</t>
+  </si>
+  <si>
+    <t>asian pear</t>
+  </si>
+  <si>
+    <t>asparagus</t>
+  </si>
+  <si>
+    <t>avocado</t>
+  </si>
+  <si>
+    <t>bagel</t>
+  </si>
+  <si>
+    <t>baguette</t>
+  </si>
+  <si>
+    <t>bamboo shoot</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>bangus</t>
+  </si>
+  <si>
+    <t>basa fish</t>
+  </si>
+  <si>
+    <t>bay scallop</t>
+  </si>
+  <si>
+    <t>beef liver</t>
+  </si>
+  <si>
+    <t>beef ribs</t>
+  </si>
+  <si>
+    <t>beef sausage</t>
+  </si>
+  <si>
+    <t>beef schnitzel</t>
+  </si>
+  <si>
+    <t>beef steak</t>
+  </si>
+  <si>
+    <t>beef tongue</t>
+  </si>
+  <si>
+    <t>beetroot</t>
+  </si>
+  <si>
+    <t>bell pepper</t>
+  </si>
+  <si>
+    <t>biscuits</t>
+  </si>
+  <si>
+    <t>bitter melon</t>
+  </si>
+  <si>
+    <t>bittersweet chocolate</t>
+  </si>
+  <si>
+    <t>black cod</t>
+  </si>
+  <si>
+    <t>blackberry</t>
+  </si>
+  <si>
+    <t>blueberry</t>
+  </si>
+  <si>
+    <t>bok choy</t>
+  </si>
+  <si>
+    <t>boneless chicken</t>
+  </si>
+  <si>
+    <t>boneless lamb</t>
+  </si>
+  <si>
+    <t>boston lettuce</t>
+  </si>
+  <si>
+    <t>boysenberry</t>
+  </si>
+  <si>
+    <t>brazil nut</t>
+  </si>
+  <si>
+    <t>brisket</t>
+  </si>
+  <si>
+    <t>broccoli</t>
+  </si>
+  <si>
+    <t>brussels sprout</t>
+  </si>
+  <si>
+    <t>butter lettuce</t>
+  </si>
+  <si>
+    <t>butternut squash</t>
+  </si>
+  <si>
+    <t>cabbage</t>
+  </si>
+  <si>
+    <t>canned sardines</t>
+  </si>
+  <si>
+    <t>cannellini beans</t>
+  </si>
+  <si>
+    <t>cantaloupe</t>
+  </si>
+  <si>
+    <t>cardamom</t>
+  </si>
+  <si>
+    <t>carp</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>cashew</t>
+  </si>
+  <si>
+    <t>catfish</t>
+  </si>
+  <si>
+    <t>catla</t>
+  </si>
+  <si>
+    <t>cauliflower</t>
+  </si>
+  <si>
+    <t>celeriac</t>
+  </si>
+  <si>
+    <t>celery</t>
+  </si>
+  <si>
+    <t>cherry</t>
+  </si>
+  <si>
+    <t>cherry tomato</t>
+  </si>
+  <si>
+    <t>chestnut</t>
+  </si>
+  <si>
+    <t>chestnut mushroom</t>
+  </si>
+  <si>
+    <t>chicken breast</t>
+  </si>
+  <si>
+    <t>chicken feet</t>
+  </si>
+  <si>
+    <t>chicken giblets</t>
+  </si>
+  <si>
+    <t>chicken leg</t>
+  </si>
+  <si>
+    <t>chicken livers</t>
+  </si>
+  <si>
+    <t>chicken quarters</t>
+  </si>
+  <si>
+    <t>chicken thighs</t>
+  </si>
+  <si>
+    <t>chicken wings</t>
+  </si>
+  <si>
+    <t>chili beans</t>
+  </si>
+  <si>
+    <t>chokeberry</t>
+  </si>
+  <si>
+    <t>clam</t>
+  </si>
+  <si>
+    <t>clementine</t>
+  </si>
+  <si>
+    <t>cloudberry</t>
+  </si>
+  <si>
+    <t>clove</t>
+  </si>
+  <si>
+    <t>coconut</t>
+  </si>
+  <si>
+    <t>cod</t>
+  </si>
+  <si>
+    <t>corn chips</t>
+  </si>
+  <si>
+    <t>corn cob</t>
+  </si>
+  <si>
+    <t>corn husk</t>
+  </si>
+  <si>
+    <t>corned beef</t>
+  </si>
+  <si>
+    <t>cornish hen</t>
+  </si>
+  <si>
+    <t>country ham</t>
+  </si>
+  <si>
+    <t>crab</t>
+  </si>
+  <si>
+    <t>crabapple</t>
+  </si>
+  <si>
+    <t>craisins</t>
+  </si>
+  <si>
+    <t>cranberry</t>
+  </si>
+  <si>
+    <t>crappie</t>
+  </si>
+  <si>
+    <t>crawfish</t>
+  </si>
+  <si>
+    <t>cucumber</t>
+  </si>
+  <si>
+    <t>currant</t>
+  </si>
+  <si>
+    <t>curry leaves</t>
+  </si>
+  <si>
+    <t>cuttlefish</t>
+  </si>
+  <si>
+    <t>daikon</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>delicata squash</t>
+  </si>
+  <si>
+    <t>dill</t>
+  </si>
+  <si>
+    <t>dill seed</t>
+  </si>
+  <si>
+    <t>dragon fruit</t>
+  </si>
+  <si>
+    <t>dried apricot</t>
+  </si>
+  <si>
+    <t>dried date</t>
+  </si>
+  <si>
+    <t>dried fig</t>
+  </si>
+  <si>
+    <t>duck</t>
+  </si>
+  <si>
+    <t>duck breast</t>
+  </si>
+  <si>
+    <t>duck egg</t>
+  </si>
+  <si>
+    <t>duck liver</t>
+  </si>
+  <si>
+    <t>eel</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>eggplant</t>
+  </si>
+  <si>
+    <t>elderberry</t>
+  </si>
+  <si>
+    <t>elk</t>
+  </si>
+  <si>
+    <t>endive</t>
+  </si>
+  <si>
+    <t>fennel</t>
+  </si>
+  <si>
+    <t>fenugreek seed</t>
+  </si>
+  <si>
+    <t>field peas</t>
+  </si>
+  <si>
+    <t>fig</t>
+  </si>
+  <si>
+    <t>fig leaves</t>
+  </si>
+  <si>
+    <t>fish fillets</t>
+  </si>
+  <si>
+    <t>flounder</t>
+  </si>
+  <si>
+    <t>flour tortillas</t>
+  </si>
+  <si>
+    <t>foie gras</t>
+  </si>
+  <si>
+    <t>french fries</t>
+  </si>
+  <si>
+    <t>fresh anchovy</t>
+  </si>
+  <si>
+    <t>frog legs</t>
+  </si>
+  <si>
+    <t>gammon joint</t>
+  </si>
+  <si>
+    <t>garlic</t>
+  </si>
+  <si>
+    <t>garoupa</t>
+  </si>
+  <si>
+    <t>gilt-head bream</t>
+  </si>
+  <si>
+    <t>ginger root</t>
+  </si>
+  <si>
+    <t>goat meat</t>
+  </si>
+  <si>
+    <t>golden wax beans</t>
+  </si>
+  <si>
+    <t>goose</t>
+  </si>
+  <si>
+    <t>goose egg</t>
+  </si>
+  <si>
+    <t>goose liver</t>
+  </si>
+  <si>
+    <t>gooseberry</t>
+  </si>
+  <si>
+    <t>granadilla</t>
+  </si>
+  <si>
+    <t>grape</t>
+  </si>
+  <si>
+    <t>grapefruit</t>
+  </si>
+  <si>
+    <t>great northern beans</t>
+  </si>
+  <si>
+    <t>green beans</t>
+  </si>
+  <si>
+    <t>green lentils</t>
+  </si>
+  <si>
+    <t>green olives</t>
+  </si>
+  <si>
+    <t>green tomato</t>
+  </si>
+  <si>
+    <t>grouper</t>
+  </si>
+  <si>
+    <t>grouse</t>
+  </si>
+  <si>
+    <t>guava</t>
+  </si>
+  <si>
+    <t>gumdrops</t>
+  </si>
+  <si>
+    <t>gummy worms</t>
+  </si>
+  <si>
+    <t>gurnard</t>
+  </si>
+  <si>
+    <t>habanero pepper</t>
+  </si>
+  <si>
+    <t>haddock</t>
+  </si>
+  <si>
+    <t>hake</t>
+  </si>
+  <si>
+    <t>halibut</t>
+  </si>
+  <si>
+    <t>ham</t>
+  </si>
+  <si>
+    <t>ham hock</t>
+  </si>
+  <si>
+    <t>ham steak</t>
+  </si>
+  <si>
+    <t>haskap berry</t>
+  </si>
+  <si>
+    <t>hazelnut</t>
+  </si>
+  <si>
+    <t>herring</t>
+  </si>
+  <si>
+    <t>hogfish</t>
+  </si>
+  <si>
+    <t>honeydew melon</t>
+  </si>
+  <si>
+    <t>horseradish</t>
+  </si>
+  <si>
+    <t>huckleberry</t>
+  </si>
+  <si>
+    <t>iceberg</t>
+  </si>
+  <si>
+    <t>indian flatbread</t>
+  </si>
+  <si>
+    <t>jackfruit</t>
+  </si>
+  <si>
+    <t>jalapeno</t>
+  </si>
+  <si>
+    <t>jerusalem artichoke</t>
+  </si>
+  <si>
+    <t>jicama</t>
+  </si>
+  <si>
+    <t>john dory</t>
+  </si>
+  <si>
+    <t>jujube</t>
+  </si>
+  <si>
+    <t>juniper berry</t>
+  </si>
+  <si>
+    <t>kaffir lime</t>
+  </si>
+  <si>
+    <t>kaffir lime leaves</t>
+  </si>
+  <si>
+    <t>kalamata olives</t>
+  </si>
+  <si>
+    <t>kale</t>
+  </si>
+  <si>
+    <t>kali mirch</t>
+  </si>
+  <si>
+    <t>kidney beans</t>
+  </si>
+  <si>
+    <t>kiwi</t>
+  </si>
+  <si>
+    <t>kohlrabi</t>
+  </si>
+  <si>
+    <t>korean seaweed</t>
+  </si>
+  <si>
+    <t>kumquat</t>
+  </si>
+  <si>
+    <t>lady fingers</t>
+  </si>
+  <si>
+    <t>lal mirch</t>
+  </si>
+  <si>
+    <t>lamb chops</t>
+  </si>
+  <si>
+    <t>lamb loin</t>
+  </si>
+  <si>
+    <t>lamb rump</t>
+  </si>
+  <si>
+    <t>lamb shank</t>
+  </si>
+  <si>
+    <t>lamb shoulder</t>
+  </si>
+  <si>
+    <t>langoustine</t>
+  </si>
+  <si>
+    <t>leaf lettuce</t>
+  </si>
+  <si>
+    <t>leek</t>
+  </si>
+  <si>
+    <t>leg of lamb</t>
+  </si>
+  <si>
+    <t>lemon</t>
+  </si>
+  <si>
+    <t>lemongrass</t>
+  </si>
+  <si>
+    <t>lentils</t>
+  </si>
+  <si>
+    <t>lettuce</t>
+  </si>
+  <si>
+    <t>lima beans</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>lingonberry</t>
+  </si>
+  <si>
+    <t>linguica</t>
+  </si>
+  <si>
+    <t>lobster</t>
+  </si>
+  <si>
+    <t>loganberry</t>
+  </si>
+  <si>
+    <t>longan</t>
+  </si>
+  <si>
+    <t>longhorn</t>
+  </si>
+  <si>
+    <t>lychee</t>
+  </si>
+  <si>
+    <t>macadamia</t>
+  </si>
+  <si>
+    <t>macaroon</t>
+  </si>
+  <si>
+    <t>mackerel</t>
+  </si>
+  <si>
+    <t>mahi mahi</t>
+  </si>
+  <si>
+    <t>mandarin</t>
+  </si>
+  <si>
+    <t>mango</t>
+  </si>
+  <si>
+    <t>maraschino cherry</t>
+  </si>
+  <si>
+    <t>marlin</t>
+  </si>
+  <si>
+    <t>marshmallow</t>
+  </si>
+  <si>
+    <t>matzo</t>
+  </si>
+  <si>
+    <t>melon</t>
+  </si>
+  <si>
+    <t>meringue nest</t>
+  </si>
+  <si>
+    <t>monkfish</t>
+  </si>
+  <si>
+    <t>mortadella</t>
+  </si>
+  <si>
+    <t>muffin</t>
+  </si>
+  <si>
+    <t>mulberry</t>
+  </si>
+  <si>
+    <t>mung beans</t>
+  </si>
+  <si>
+    <t>mushroom</t>
+  </si>
+  <si>
+    <t>napa cabbage</t>
+  </si>
+  <si>
+    <t>nduja</t>
+  </si>
+  <si>
+    <t>nectarine</t>
+  </si>
+  <si>
+    <t>nori</t>
+  </si>
+  <si>
+    <t>octopus</t>
+  </si>
+  <si>
+    <t>okra</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>orange roughy</t>
+  </si>
+  <si>
+    <t>oreo</t>
+  </si>
+  <si>
+    <t>ostrich</t>
+  </si>
+  <si>
+    <t>oxtail</t>
+  </si>
+  <si>
+    <t>oyster</t>
+  </si>
+  <si>
+    <t>oyster mushroom</t>
+  </si>
+  <si>
+    <t>pancetta</t>
+  </si>
+  <si>
+    <t>panettone</t>
+  </si>
+  <si>
+    <t>pangasius</t>
+  </si>
+  <si>
+    <t>papad</t>
+  </si>
+  <si>
+    <t>papaya</t>
+  </si>
+  <si>
+    <t>parsnip</t>
+  </si>
+  <si>
+    <t>passion fruit</t>
+  </si>
+  <si>
+    <t>peach</t>
+  </si>
+  <si>
+    <t>peanut</t>
+  </si>
+  <si>
+    <t>pear</t>
+  </si>
+  <si>
+    <t>pearl onion</t>
+  </si>
+  <si>
+    <t>peas</t>
+  </si>
+  <si>
+    <t>pecan</t>
+  </si>
+  <si>
+    <t>peppercorn</t>
+  </si>
+  <si>
+    <t>pepperoni</t>
+  </si>
+  <si>
+    <t>perch</t>
+  </si>
+  <si>
+    <t>persimmon</t>
+  </si>
+  <si>
+    <t>pheasant</t>
+  </si>
+  <si>
+    <t>pickle</t>
+  </si>
+  <si>
+    <t>pickled onions</t>
+  </si>
+  <si>
+    <t>pickled red onion</t>
+  </si>
+  <si>
+    <t>pierogi</t>
+  </si>
+  <si>
+    <t>pigeon</t>
+  </si>
+  <si>
+    <t>pigeon peas</t>
+  </si>
+  <si>
+    <t>pike</t>
+  </si>
+  <si>
+    <t>pilchards</t>
+  </si>
+  <si>
+    <t>pimiento</t>
+  </si>
+  <si>
+    <t>pine nut</t>
+  </si>
+  <si>
+    <t>pineapple</t>
+  </si>
+  <si>
+    <t>pinto beans</t>
+  </si>
+  <si>
+    <t>pistachio</t>
+  </si>
+  <si>
+    <t>plantain</t>
+  </si>
+  <si>
+    <t>plum</t>
+  </si>
+  <si>
+    <t>poblano pepper</t>
+  </si>
+  <si>
+    <t>pollock</t>
+  </si>
+  <si>
+    <t>pomegranate</t>
+  </si>
+  <si>
+    <t>pomelo</t>
+  </si>
+  <si>
+    <t>pomfret</t>
+  </si>
+  <si>
+    <t>pompano</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>porcini</t>
+  </si>
+  <si>
+    <t>pork belly</t>
+  </si>
+  <si>
+    <t>pork butt</t>
+  </si>
+  <si>
+    <t>pork chops</t>
+  </si>
+  <si>
+    <t>pork cutlets</t>
+  </si>
+  <si>
+    <t>pork fillet</t>
+  </si>
+  <si>
+    <t>pork liver</t>
+  </si>
+  <si>
+    <t>pork loin</t>
+  </si>
+  <si>
+    <t>pork ribs</t>
+  </si>
+  <si>
+    <t>pork roast</t>
+  </si>
+  <si>
+    <t>pork shoulder</t>
+  </si>
+  <si>
+    <t>portobello mushroom</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>potato chips</t>
+  </si>
+  <si>
+    <t>prawns</t>
+  </si>
+  <si>
+    <t>prickly pear</t>
+  </si>
+  <si>
+    <t>prunes</t>
+  </si>
+  <si>
+    <t>pumpkin</t>
+  </si>
+  <si>
+    <t>pumpkin seeds</t>
+  </si>
+  <si>
+    <t>quail</t>
+  </si>
+  <si>
+    <t>quail egg</t>
+  </si>
+  <si>
+    <t>quince</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>radicchio</t>
+  </si>
+  <si>
+    <t>radish</t>
+  </si>
+  <si>
+    <t>raisins</t>
+  </si>
+  <si>
+    <t>rambutan</t>
+  </si>
+  <si>
+    <t>raspberry</t>
+  </si>
+  <si>
+    <t>red beans</t>
+  </si>
+  <si>
+    <t>red leaf lettuce</t>
+  </si>
+  <si>
+    <t>red onion</t>
+  </si>
+  <si>
+    <t>red snapper</t>
+  </si>
+  <si>
+    <t>rhubarb</t>
+  </si>
+  <si>
+    <t>rice cake</t>
+  </si>
+  <si>
+    <t>rice paper</t>
+  </si>
+  <si>
+    <t>rockfish</t>
+  </si>
+  <si>
+    <t>rohu fish</t>
+  </si>
+  <si>
+    <t>romaine</t>
+  </si>
+  <si>
+    <t>rutabaga</t>
+  </si>
+  <si>
+    <t>saigon cinnamon</t>
+  </si>
+  <si>
+    <t>salmon</t>
+  </si>
+  <si>
+    <t>sardines</t>
+  </si>
+  <si>
+    <t>scallion</t>
+  </si>
+  <si>
+    <t>scallop</t>
+  </si>
+  <si>
+    <t>scampi</t>
+  </si>
+  <si>
+    <t>sea bass</t>
+  </si>
+  <si>
+    <t>sea bream</t>
+  </si>
+  <si>
+    <t>sea buckthorn</t>
+  </si>
+  <si>
+    <t>sea urchin</t>
+  </si>
+  <si>
+    <t>serrano ham</t>
+  </si>
+  <si>
+    <t>serrano pepper</t>
+  </si>
+  <si>
+    <t>sesame seed</t>
+  </si>
+  <si>
+    <t>shallot</t>
+  </si>
+  <si>
+    <t>shark fins</t>
+  </si>
+  <si>
+    <t>shark meat</t>
+  </si>
+  <si>
+    <t>shiitake mushroom</t>
+  </si>
+  <si>
+    <t>shiso</t>
+  </si>
+  <si>
+    <t>shrimp</t>
+  </si>
+  <si>
+    <t>smoked chicken</t>
+  </si>
+  <si>
+    <t>smoked duck breast</t>
+  </si>
+  <si>
+    <t>smoked eel</t>
+  </si>
+  <si>
+    <t>smoked haddock</t>
+  </si>
+  <si>
+    <t>smoked mackerel</t>
+  </si>
+  <si>
+    <t>smoked oyster</t>
+  </si>
+  <si>
+    <t>smoked salmon</t>
+  </si>
+  <si>
+    <t>smoked turkey leg</t>
+  </si>
+  <si>
+    <t>snail</t>
+  </si>
+  <si>
+    <t>snake beans</t>
+  </si>
+  <si>
+    <t>snow peas</t>
+  </si>
+  <si>
+    <t>sole</t>
+  </si>
+  <si>
+    <t>sorghum</t>
+  </si>
+  <si>
+    <t>sorrel</t>
+  </si>
+  <si>
+    <t>sour cherry</t>
+  </si>
+  <si>
+    <t>soybeans</t>
+  </si>
+  <si>
+    <t>spaghetti squash</t>
+  </si>
+  <si>
+    <t>spinach</t>
+  </si>
+  <si>
+    <t>squash</t>
+  </si>
+  <si>
+    <t>star anise</t>
+  </si>
+  <si>
+    <t>star fruit</t>
+  </si>
+  <si>
+    <t>strawberry</t>
+  </si>
+  <si>
+    <t>sturgeon</t>
+  </si>
+  <si>
+    <t>sugar pumpkin</t>
+  </si>
+  <si>
+    <t>sultanas</t>
+  </si>
+  <si>
+    <t>sumac</t>
+  </si>
+  <si>
+    <t>sun dried tomato</t>
+  </si>
+  <si>
+    <t>sunflower seeds</t>
+  </si>
+  <si>
+    <t>swai fish</t>
+  </si>
+  <si>
+    <t>sweet corn</t>
+  </si>
+  <si>
+    <t>sweet lime</t>
+  </si>
+  <si>
+    <t>sweet onion</t>
+  </si>
+  <si>
+    <t>sweet pepper</t>
+  </si>
+  <si>
+    <t>sweet potato</t>
+  </si>
+  <si>
+    <t>swordfish</t>
+  </si>
+  <si>
+    <t>taggiasca olives</t>
+  </si>
+  <si>
+    <t>tamarind</t>
+  </si>
+  <si>
+    <t>tangelo</t>
+  </si>
+  <si>
+    <t>tangerine</t>
+  </si>
+  <si>
+    <t>tarragon</t>
+  </si>
+  <si>
+    <t>threadfin</t>
+  </si>
+  <si>
+    <t>tilapia</t>
+  </si>
+  <si>
     <t>tomato</t>
   </si>
   <si>
-    <t>5 oz</t>
-  </si>
-  <si>
-    <t>egg</t>
-  </si>
-  <si>
-    <t>2.125 oz</t>
-  </si>
-  <si>
-    <t>bacon</t>
-  </si>
-  <si>
-    <t>0.55 oz</t>
-  </si>
-  <si>
-    <t>potato</t>
-  </si>
-  <si>
-    <t>6 oz</t>
-  </si>
-  <si>
-    <t>jicama</t>
-  </si>
-  <si>
-    <t>3 oz</t>
-  </si>
-  <si>
-    <t>pineapple</t>
-  </si>
-  <si>
-    <t>4 oz</t>
-  </si>
-  <si>
-    <t>butternut squash</t>
-  </si>
-  <si>
-    <t>1 pound</t>
-  </si>
-  <si>
-    <t>grapes</t>
-  </si>
-  <si>
-    <t>cheddar cheese</t>
-  </si>
-  <si>
-    <t>1 ounce</t>
-  </si>
-  <si>
-    <t>broccoli</t>
-  </si>
-  <si>
-    <t>1 lb</t>
-  </si>
-  <si>
-    <t>olive oil</t>
-  </si>
-  <si>
-    <t>1 gram</t>
-  </si>
-  <si>
-    <t>garlic</t>
+    <t>tortilla chips</t>
+  </si>
+  <si>
+    <t>trout</t>
+  </si>
+  <si>
+    <t>tuna steak</t>
+  </si>
+  <si>
+    <t>turkey breast</t>
+  </si>
+  <si>
+    <t>turkey leg</t>
+  </si>
+  <si>
+    <t>turkey liver</t>
+  </si>
+  <si>
+    <t>turkey thigh</t>
+  </si>
+  <si>
+    <t>turkey wing</t>
+  </si>
+  <si>
+    <t>turnip</t>
+  </si>
+  <si>
+    <t>urad dal</t>
+  </si>
+  <si>
+    <t>veal chops</t>
+  </si>
+  <si>
+    <t>veal meat</t>
+  </si>
+  <si>
+    <t>veal shank</t>
+  </si>
+  <si>
+    <t>venison</t>
+  </si>
+  <si>
+    <t>wakame</t>
+  </si>
+  <si>
+    <t>walleye</t>
+  </si>
+  <si>
+    <t>walnut</t>
+  </si>
+  <si>
+    <t>wasabi</t>
+  </si>
+  <si>
+    <t>water chestnut</t>
+  </si>
+  <si>
+    <t>watercress</t>
+  </si>
+  <si>
+    <t>watermelon</t>
+  </si>
+  <si>
+    <t>white beans</t>
+  </si>
+  <si>
+    <t>whitefish</t>
+  </si>
+  <si>
+    <t>whole chicken</t>
+  </si>
+  <si>
+    <t>whole turkey</t>
+  </si>
+  <si>
+    <t>wild boar</t>
+  </si>
+  <si>
+    <t>yaki-nori</t>
+  </si>
+  <si>
+    <t>yam</t>
+  </si>
+  <si>
+    <t>yellowtail</t>
+  </si>
+  <si>
+    <t>zucchini</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -111,13 +1290,8 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13.0"/>
-      <color rgb="FF222C33"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -135,16 +1309,26 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -362,9 +1546,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="18.13"/>
-    <col customWidth="1" min="2" max="2" width="8.63"/>
-    <col customWidth="1" min="3" max="3" width="14.63"/>
-    <col customWidth="1" min="4" max="26" width="8.63"/>
+    <col customWidth="1" min="2" max="2" width="14.63"/>
+    <col customWidth="1" min="3" max="25" width="8.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -374,546 +1557,3335 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4.25</v>
+      <c r="B3" s="3">
+        <v>793.78</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.1</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>12.0</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3.56</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6.0</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.0</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>31000.0</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2">
-        <v>35.0</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>226.79</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2">
-        <v>30.0</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45.0</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2.0</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>224.0</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2">
-        <v>102.0</v>
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>56.0</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.075</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>7.89</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2.438</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5">
+        <v>18.83</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="5">
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="5">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.119</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
+      <c r="B24" s="6">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="5">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="5">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="5">
+        <v>10.12</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="5">
+        <v>39.34913806</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="5">
+        <v>97.16</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="5">
+        <v>19.779</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="5">
+        <v>34.7</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="5">
+        <v>78.075</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="5">
+        <v>472.189619</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="5">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="5">
+        <v>72.84247</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1.665</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="5">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="5">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2263.0</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0.1134</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0.01754</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="5">
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="5">
+        <v>102.0</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="5">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="5">
+        <v>45.64</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="5">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="6">
+        <v>0.4592</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="5">
+        <v>353.802</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="A49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="5">
+        <v>56.1308</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="A50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="5">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="5">
+        <v>12.8989</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="5">
+        <v>79.3786</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" customHeight="1">
+      <c r="A53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="5">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" customHeight="1">
+      <c r="A54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="5">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0.0525</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" customHeight="1">
+      <c r="A56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="5">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="A57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0.0098</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="5">
+        <v>253.96</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="5">
+        <v>9.8</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="A60" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0.1995</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="5">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="5">
+        <v>32.83</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="5">
+        <v>63.49</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="5">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="A65" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="5">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0.805</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="5">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="A70" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="5">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="5">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0.5355</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="5">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="5">
+        <v>2.4535</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="5">
+        <v>32.2469</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="5">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="5">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.04375</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="A79" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0.1925</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="5">
+        <v>14.665</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="5">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="A82" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0.2604</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="A83" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0.0616</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="A84" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="5">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" customHeight="1">
+      <c r="A85" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="5">
+        <v>2800.0</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="A86" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" customHeight="1">
+      <c r="A87" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="5">
+        <v>158.69</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="A88" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="5">
+        <v>158.69</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" customHeight="1">
+      <c r="A89" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="5">
+        <v>79.3786</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" customHeight="1">
+      <c r="A90" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="5">
+        <v>39.69</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="A91" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="5">
+        <v>444.5203</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="A92" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="5">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" customHeight="1">
+      <c r="A93" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="5">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25" customHeight="1">
+      <c r="A94" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0.0721</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25" customHeight="1">
+      <c r="A95" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0.0721</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25" customHeight="1">
+      <c r="A96" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="5">
+        <v>91.0</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25" customHeight="1">
+      <c r="A97" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="5">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="A98" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="5">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="A99" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0.1211</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="A100" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25" customHeight="1">
+      <c r="A101" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0.4725</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25" customHeight="1">
+      <c r="A102" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="5">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25" customHeight="1">
+      <c r="A103" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="5">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25" customHeight="1">
+      <c r="A104" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="5">
+        <v>47.6266</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25" customHeight="1">
+      <c r="A105" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="5">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" customHeight="1">
+      <c r="A106" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="5">
+        <v>3.0E-4</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="A107" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="5">
+        <v>187.125</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="A108" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="5">
+        <v>0.53331</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25" customHeight="1">
+      <c r="A109" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0.085</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="A110" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0.5124</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25" customHeight="1">
+      <c r="A111" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="5">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" customHeight="1">
+      <c r="A112" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="5">
+        <v>5.7405</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25" customHeight="1">
+      <c r="A113" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="5">
+        <v>4.99966589</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25" customHeight="1">
+      <c r="A114" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" s="5">
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25" customHeight="1">
+      <c r="A115" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" s="5">
+        <v>813.475</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25" customHeight="1">
+      <c r="A116" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" s="6">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25" customHeight="1">
+      <c r="A117" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" s="5">
+        <v>86.07</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25" customHeight="1">
+      <c r="A118" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="5">
+        <v>12.54</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25" customHeight="1">
+      <c r="A119" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" s="5">
+        <v>27215.544</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25" customHeight="1">
+      <c r="A120" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" s="5">
+        <v>104.0</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" customHeight="1">
+      <c r="A121" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" s="5">
+        <v>15.21</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25" customHeight="1">
+      <c r="A122" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" s="5">
+        <v>4.5E-4</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" customHeight="1">
+      <c r="A123" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" s="5">
+        <v>0.0437</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25" customHeight="1">
+      <c r="A124" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" s="5">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25" customHeight="1">
+      <c r="A125" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" s="5">
+        <v>0.0525</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25" customHeight="1">
+      <c r="A126" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" s="5">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25" customHeight="1">
+      <c r="A127" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" s="5">
+        <v>299.2608239</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25" customHeight="1">
+      <c r="A128" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" s="5">
+        <v>11.02941174</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25" customHeight="1">
+      <c r="A129" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" s="5">
+        <v>168.0</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25" customHeight="1">
+      <c r="A130" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" s="5">
+        <v>2.80745336</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25" customHeight="1">
+      <c r="A131" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" s="5">
+        <v>19.72</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25" customHeight="1">
+      <c r="A132" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" s="5">
+        <v>4.675</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25" customHeight="1">
+      <c r="A133" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" s="5">
+        <v>143.0</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" customHeight="1">
+      <c r="A134" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" s="5">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25" customHeight="1">
+      <c r="A135" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" s="5">
+        <v>5443.08</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25" customHeight="1">
+      <c r="A136" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" s="5">
+        <v>503.5</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" customHeight="1">
+      <c r="A137" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" s="5">
+        <v>81.07</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" customHeight="1">
+      <c r="A138" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" s="5">
+        <v>5400.0</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" customHeight="1">
+      <c r="A139" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" s="5">
+        <v>0.0259</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25" customHeight="1">
+      <c r="A140" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" s="5">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25" customHeight="1">
+      <c r="A141" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" s="5">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25" customHeight="1">
+      <c r="A142" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" s="5">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25" customHeight="1">
+      <c r="A143" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" s="5">
+        <v>0.1698</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25" customHeight="1">
+      <c r="A144" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="6">
+        <v>2.881</v>
+      </c>
+    </row>
+    <row r="145" ht="14.25" customHeight="1">
+      <c r="A145" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="146" ht="14.25" customHeight="1">
+      <c r="A146" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="5">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="147" ht="14.25" customHeight="1">
+      <c r="A147" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" s="5">
+        <v>0.025123</v>
+      </c>
+    </row>
+    <row r="148" ht="14.25" customHeight="1">
+      <c r="A148" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" s="5">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="149" ht="14.25" customHeight="1">
+      <c r="A149" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" s="5">
+        <v>0.00455</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25" customHeight="1">
+      <c r="A150" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" s="5">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="151" ht="14.25" customHeight="1">
+      <c r="A151" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" s="5">
+        <v>12.48</v>
+      </c>
+    </row>
+    <row r="152" ht="14.25" customHeight="1">
+      <c r="A152" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="5">
+        <v>5443.107</v>
+      </c>
+    </row>
+    <row r="153" ht="14.25" customHeight="1">
+      <c r="A153" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" s="5">
+        <v>39.12</v>
+      </c>
+    </row>
+    <row r="154" ht="14.25" customHeight="1">
+      <c r="A154" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="155" ht="14.25" customHeight="1">
+      <c r="A155" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" s="5">
+        <v>1.89354092</v>
+      </c>
+    </row>
+    <row r="156" ht="14.25" customHeight="1">
+      <c r="A156" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" s="5">
+        <v>0.551</v>
+      </c>
+    </row>
+    <row r="157" ht="14.25" customHeight="1">
+      <c r="A157" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" s="5">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="158" ht="14.25" customHeight="1">
+      <c r="A158" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" s="5">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="159" ht="14.25" customHeight="1">
+      <c r="A159" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" s="5">
+        <v>644.0</v>
+      </c>
+    </row>
+    <row r="160" ht="14.25" customHeight="1">
+      <c r="A160" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" s="5">
+        <v>105.0</v>
+      </c>
+    </row>
+    <row r="161" ht="14.25" customHeight="1">
+      <c r="A161" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" s="5">
+        <v>9500.0</v>
+      </c>
+    </row>
+    <row r="162" ht="14.25" customHeight="1">
+      <c r="A162" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" s="5">
+        <v>254.01173</v>
+      </c>
+    </row>
+    <row r="163" ht="14.25" customHeight="1">
+      <c r="A163" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" s="5">
+        <v>24.80583</v>
+      </c>
+    </row>
+    <row r="164" ht="14.25" customHeight="1">
+      <c r="A164" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" s="5">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="165" ht="14.25" customHeight="1">
+      <c r="A165" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="166" ht="14.25" customHeight="1">
+      <c r="A166" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" s="5">
+        <v>0.077</v>
+      </c>
+    </row>
+    <row r="167" ht="14.25" customHeight="1">
+      <c r="A167" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167" s="5">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="168" ht="14.25" customHeight="1">
+      <c r="A168" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" s="5">
+        <v>324.0</v>
+      </c>
+    </row>
+    <row r="169" ht="14.25" customHeight="1">
+      <c r="A169" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" s="5">
+        <v>243.0</v>
+      </c>
+    </row>
+    <row r="170" ht="14.25" customHeight="1">
+      <c r="A170" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170" s="5">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="171" ht="14.25" customHeight="1">
+      <c r="A171" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="172" ht="14.25" customHeight="1">
+      <c r="A172" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172" s="5">
+        <v>326.9025</v>
+      </c>
+    </row>
+    <row r="173" ht="14.25" customHeight="1">
+      <c r="A173" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173" s="5">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="174" ht="14.25" customHeight="1">
+      <c r="A174" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174" s="5">
+        <v>873.16526</v>
+      </c>
+    </row>
+    <row r="175" ht="14.25" customHeight="1">
+      <c r="A175" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175" s="5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="176" ht="14.25" customHeight="1">
+      <c r="A176" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176" s="5">
+        <v>10.0826</v>
+      </c>
+    </row>
+    <row r="177" ht="14.25" customHeight="1">
+      <c r="A177" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177" s="5">
+        <v>163.2924</v>
+      </c>
+    </row>
+    <row r="178" ht="14.25" customHeight="1">
+      <c r="A178" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178" s="5">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="179" ht="14.25" customHeight="1">
+      <c r="A179" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179" s="5">
+        <v>3.6805</v>
+      </c>
+    </row>
+    <row r="180" ht="14.25" customHeight="1">
+      <c r="A180" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180" s="5">
+        <v>0.1625</v>
+      </c>
+    </row>
+    <row r="181" ht="14.25" customHeight="1">
+      <c r="A181" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" s="5">
+        <v>0.329</v>
+      </c>
+    </row>
+    <row r="182" ht="14.25" customHeight="1">
+      <c r="A182" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182" s="5">
+        <v>0.329</v>
+      </c>
+    </row>
+    <row r="183" ht="14.25" customHeight="1">
+      <c r="A183" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183" s="5">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="184" ht="14.25" customHeight="1">
+      <c r="A184" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184" s="5">
+        <v>9.045</v>
+      </c>
+    </row>
+    <row r="185" ht="14.25" customHeight="1">
+      <c r="A185" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185" s="5">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="186" ht="14.25" customHeight="1">
+      <c r="A186" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186" s="5">
+        <v>0.0315</v>
+      </c>
+    </row>
+    <row r="187" ht="14.25" customHeight="1">
+      <c r="A187" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" s="5">
+        <v>4.623</v>
+      </c>
+    </row>
+    <row r="188" ht="14.25" customHeight="1">
+      <c r="A188" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188" s="5">
+        <v>26.668</v>
+      </c>
+    </row>
+    <row r="189" ht="14.25" customHeight="1">
+      <c r="A189" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189" s="5">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="190" ht="14.25" customHeight="1">
+      <c r="A190" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190" s="5">
+        <v>0.9438</v>
+      </c>
+    </row>
+    <row r="191" ht="14.25" customHeight="1">
+      <c r="A191" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191" s="5">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="192" ht="14.25" customHeight="1">
+      <c r="A192" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" s="5">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="193" ht="14.25" customHeight="1">
+      <c r="A193" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193" s="5">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="194" ht="14.25" customHeight="1">
+      <c r="A194" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194" s="5">
+        <v>140.0</v>
+      </c>
+    </row>
+    <row r="195" ht="14.25" customHeight="1">
+      <c r="A195" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195" s="5">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="196" ht="14.25" customHeight="1">
+      <c r="A196" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196" s="5">
+        <v>79.3786</v>
+      </c>
+    </row>
+    <row r="197" ht="14.25" customHeight="1">
+      <c r="A197" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197" s="5">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="198" ht="14.25" customHeight="1">
+      <c r="A198" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198" s="5">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="199" ht="14.25" customHeight="1">
+      <c r="A199" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" s="5">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="200" ht="14.25" customHeight="1">
+      <c r="A200" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" s="5">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="201" ht="14.25" customHeight="1">
+      <c r="A201" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201" s="5">
+        <v>175.0</v>
+      </c>
+    </row>
+    <row r="202" ht="14.25" customHeight="1">
+      <c r="A202" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" s="5">
+        <v>4.935</v>
+      </c>
+    </row>
+    <row r="203" ht="14.25" customHeight="1">
+      <c r="A203" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" s="5">
+        <v>11.338</v>
+      </c>
+    </row>
+    <row r="204" ht="14.25" customHeight="1">
+      <c r="A204" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" s="5">
+        <v>0.0039</v>
+      </c>
+    </row>
+    <row r="205" ht="14.25" customHeight="1">
+      <c r="A205" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" s="5">
+        <v>96.0</v>
+      </c>
+    </row>
+    <row r="206" ht="14.25" customHeight="1">
+      <c r="A206" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" s="5">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="207" ht="14.25" customHeight="1">
+      <c r="A207" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" s="5">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="208" ht="14.25" customHeight="1">
+      <c r="A208" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208" s="5">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="209" ht="14.25" customHeight="1">
+      <c r="A209" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209" s="5">
+        <v>15.663</v>
+      </c>
+    </row>
+    <row r="210" ht="14.25" customHeight="1">
+      <c r="A210" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210" s="5">
+        <v>38.32855</v>
+      </c>
+    </row>
+    <row r="211" ht="14.25" customHeight="1">
+      <c r="A211" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211" s="5">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="212" ht="14.25" customHeight="1">
+      <c r="A212" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212" s="5">
+        <v>0.1508</v>
+      </c>
+    </row>
+    <row r="213" ht="14.25" customHeight="1">
+      <c r="A213" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213" s="6">
+        <v>38591.365</v>
+      </c>
+    </row>
+    <row r="214" ht="14.25" customHeight="1">
+      <c r="A214" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214" s="5">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="215" ht="14.25" customHeight="1">
+      <c r="A215" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" s="5">
+        <v>0.1846</v>
+      </c>
+    </row>
+    <row r="216" ht="14.25" customHeight="1">
+      <c r="A216" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="217" ht="14.25" customHeight="1">
+      <c r="A217" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217" s="5">
+        <v>138.13</v>
+      </c>
+    </row>
+    <row r="218" ht="14.25" customHeight="1">
+      <c r="A218" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218" s="5">
+        <v>1320.0</v>
+      </c>
+    </row>
+    <row r="219" ht="14.25" customHeight="1">
+      <c r="A219" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219" s="5">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="220" ht="14.25" customHeight="1">
+      <c r="A220" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" s="5">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="221" ht="14.25" customHeight="1">
+      <c r="A221" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221" s="5">
+        <v>0.575</v>
+      </c>
+    </row>
+    <row r="222" ht="14.25" customHeight="1">
+      <c r="A222" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222" s="5">
+        <v>6298.0</v>
+      </c>
+    </row>
+    <row r="223" ht="14.25" customHeight="1">
+      <c r="A223" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223" s="5">
+        <v>3.717</v>
+      </c>
+    </row>
+    <row r="224" ht="14.25" customHeight="1">
+      <c r="A224" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224" s="5">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="225" ht="14.25" customHeight="1">
+      <c r="A225" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225" s="6">
+        <v>312.5</v>
+      </c>
+    </row>
+    <row r="226" ht="14.25" customHeight="1">
+      <c r="A226" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226" s="5">
+        <v>1.079</v>
+      </c>
+    </row>
+    <row r="227" ht="14.25" customHeight="1">
+      <c r="A227" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227" s="5">
+        <v>1820.0</v>
+      </c>
+    </row>
+    <row r="228" ht="14.25" customHeight="1">
+      <c r="A228" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228" s="5">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="229" ht="14.25" customHeight="1">
+      <c r="A229" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229" s="5">
+        <v>18.144</v>
+      </c>
+    </row>
+    <row r="230" ht="14.25" customHeight="1">
+      <c r="A230" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230" s="5">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="231" ht="14.25" customHeight="1">
+      <c r="A231" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231" s="5">
+        <v>0.33024</v>
+      </c>
+    </row>
+    <row r="232" ht="14.25" customHeight="1">
+      <c r="A232" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232" s="5">
+        <v>0.225</v>
+      </c>
+    </row>
+    <row r="233" ht="14.25" customHeight="1">
+      <c r="A233" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233" s="5">
+        <v>182.117334</v>
+      </c>
+    </row>
+    <row r="234" ht="14.25" customHeight="1">
+      <c r="A234" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234" s="5">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="235" ht="14.25" customHeight="1">
+      <c r="A235" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235" s="5">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="236" ht="14.25" customHeight="1">
+      <c r="A236" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" s="5">
+        <v>3.124</v>
+      </c>
+    </row>
+    <row r="237" ht="14.25" customHeight="1">
+      <c r="A237" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" s="6">
+        <v>2164.5</v>
+      </c>
+    </row>
+    <row r="238" ht="14.25" customHeight="1">
+      <c r="A238" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238" s="6">
+        <v>0.0084</v>
+      </c>
+    </row>
+    <row r="239" ht="14.25" customHeight="1">
+      <c r="A239" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239" s="6">
+        <v>14.41</v>
+      </c>
+    </row>
+    <row r="240" ht="14.25" customHeight="1">
+      <c r="A240" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240" s="5">
+        <v>9.35602</v>
+      </c>
+    </row>
+    <row r="241" ht="14.25" customHeight="1">
+      <c r="A241" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241" s="5">
+        <v>124.32</v>
+      </c>
+    </row>
+    <row r="242" ht="14.25" customHeight="1">
+      <c r="A242" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242" s="5">
+        <v>1.09497</v>
+      </c>
+    </row>
+    <row r="243" ht="14.25" customHeight="1">
+      <c r="A243" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243" s="5">
+        <v>13568.3126</v>
+      </c>
+    </row>
+    <row r="244" ht="14.25" customHeight="1">
+      <c r="A244" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244" s="5">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="245" ht="14.25" customHeight="1">
+      <c r="A245" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245" s="5">
+        <v>2.912</v>
+      </c>
+    </row>
+    <row r="246" ht="14.25" customHeight="1">
+      <c r="A246" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246" s="5">
+        <v>5.379</v>
+      </c>
+    </row>
+    <row r="247" ht="14.25" customHeight="1">
+      <c r="A247" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247" s="5">
+        <v>38.15</v>
+      </c>
+    </row>
+    <row r="248" ht="14.25" customHeight="1">
+      <c r="A248" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248" s="5">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="249" ht="14.25" customHeight="1">
+      <c r="A249" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249" s="5">
+        <v>1.885</v>
+      </c>
+    </row>
+    <row r="250" ht="14.25" customHeight="1">
+      <c r="A250" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250" s="5">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="251" ht="14.25" customHeight="1">
+      <c r="A251" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251" s="5">
+        <v>17.875</v>
+      </c>
+    </row>
+    <row r="252" ht="14.25" customHeight="1">
+      <c r="A252" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252" s="5">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="253" ht="14.25" customHeight="1">
+      <c r="A253" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253" s="5">
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="254" ht="14.25" customHeight="1">
+      <c r="A254" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254" s="5">
+        <v>11.4625</v>
+      </c>
+    </row>
+    <row r="255" ht="14.25" customHeight="1">
+      <c r="A255" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255" s="5">
+        <v>0.029475</v>
+      </c>
+    </row>
+    <row r="256" ht="14.25" customHeight="1">
+      <c r="A256" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256" s="5">
+        <v>11.214</v>
+      </c>
+    </row>
+    <row r="257" ht="14.25" customHeight="1">
+      <c r="A257" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257" s="6">
+        <v>7.9373</v>
+      </c>
+    </row>
+    <row r="258" ht="14.25" customHeight="1">
+      <c r="A258" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258" s="5">
+        <v>0.0529</v>
+      </c>
+    </row>
+    <row r="259" ht="14.25" customHeight="1">
+      <c r="A259" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259" s="5">
+        <v>0.1278</v>
+      </c>
+    </row>
+    <row r="260" ht="14.25" customHeight="1">
+      <c r="A260" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260" s="5">
+        <v>0.006716</v>
+      </c>
+    </row>
+    <row r="261" ht="14.25" customHeight="1">
+      <c r="A261" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261" s="5">
+        <v>15.6403</v>
+      </c>
+    </row>
+    <row r="262" ht="14.25" customHeight="1">
+      <c r="A262" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262" s="5">
+        <v>29.56907851</v>
+      </c>
+    </row>
+    <row r="263" ht="14.25" customHeight="1">
+      <c r="A263" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263" s="5">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="264" ht="14.25" customHeight="1">
+      <c r="A264" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264" s="5">
+        <v>222.7410474</v>
+      </c>
+    </row>
+    <row r="265" ht="14.25" customHeight="1">
+      <c r="A265" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265" s="5">
+        <v>7.345</v>
+      </c>
+    </row>
+    <row r="266" ht="14.25" customHeight="1">
+      <c r="A266" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266" s="5">
+        <v>39.14</v>
+      </c>
+    </row>
+    <row r="267" ht="14.25" customHeight="1">
+      <c r="A267" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267" s="5">
+        <v>26.78</v>
+      </c>
+    </row>
+    <row r="268" ht="14.25" customHeight="1">
+      <c r="A268" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268" s="5">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="269" ht="14.25" customHeight="1">
+      <c r="A269" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269" s="5">
+        <v>16.92075</v>
+      </c>
+    </row>
+    <row r="270" ht="14.25" customHeight="1">
+      <c r="A270" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270" s="5">
+        <v>0.00547617</v>
+      </c>
+    </row>
+    <row r="271" ht="14.25" customHeight="1">
+      <c r="A271" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271" s="5">
+        <v>103.350807</v>
+      </c>
+    </row>
+    <row r="272" ht="14.25" customHeight="1">
+      <c r="A272" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272" s="5">
+        <v>1.3420585</v>
+      </c>
+    </row>
+    <row r="273" ht="14.25" customHeight="1">
+      <c r="A273" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273" s="6">
+        <v>2.0283</v>
+      </c>
+    </row>
+    <row r="274" ht="14.25" customHeight="1">
+      <c r="A274" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274" s="5">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="275" ht="14.25" customHeight="1">
+      <c r="A275" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275" s="5">
+        <v>127.0052</v>
+      </c>
+    </row>
+    <row r="276" ht="14.25" customHeight="1">
+      <c r="A276" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276" s="5">
+        <v>0.743535</v>
+      </c>
+    </row>
+    <row r="277" ht="14.25" customHeight="1">
+      <c r="A277" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277" s="5">
+        <v>0.081396</v>
+      </c>
+    </row>
+    <row r="278" ht="14.25" customHeight="1">
+      <c r="A278" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278" s="5">
+        <v>63.984</v>
+      </c>
+    </row>
+    <row r="279" ht="14.25" customHeight="1">
+      <c r="A279" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279" s="5">
+        <v>4.07537</v>
+      </c>
+    </row>
+    <row r="280" ht="14.25" customHeight="1">
+      <c r="A280" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280" s="5">
+        <v>1.0625</v>
+      </c>
+    </row>
+    <row r="281" ht="14.25" customHeight="1">
+      <c r="A281" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281" s="5">
+        <v>86.751</v>
+      </c>
+    </row>
+    <row r="282" ht="14.25" customHeight="1">
+      <c r="A282" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282" s="5">
+        <v>39.28375</v>
+      </c>
+    </row>
+    <row r="283" ht="14.25" customHeight="1">
+      <c r="A283" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283" s="5">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="284" ht="14.25" customHeight="1">
+      <c r="A284" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284" s="5">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="285" ht="14.25" customHeight="1">
+      <c r="A285" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285" s="5">
+        <v>117.91</v>
+      </c>
+    </row>
+    <row r="286" ht="14.25" customHeight="1">
+      <c r="A286" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286" s="5">
+        <v>0.01111</v>
+      </c>
+    </row>
+    <row r="287" ht="14.25" customHeight="1">
+      <c r="A287" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287" s="5">
+        <v>1.15146</v>
+      </c>
+    </row>
+    <row r="288" ht="14.25" customHeight="1">
+      <c r="A288" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288" s="5">
+        <v>402.0</v>
+      </c>
+    </row>
+    <row r="289" ht="14.25" customHeight="1">
+      <c r="A289" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289" s="5">
+        <v>239.496774</v>
+      </c>
+    </row>
+    <row r="290" ht="14.25" customHeight="1">
+      <c r="A290" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290" s="5">
+        <v>11.286</v>
+      </c>
+    </row>
+    <row r="291" ht="14.25" customHeight="1">
+      <c r="A291" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291" s="5">
+        <v>11.286</v>
+      </c>
+    </row>
+    <row r="292" ht="14.25" customHeight="1">
+      <c r="A292" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292" s="5">
+        <v>44.88</v>
+      </c>
+    </row>
+    <row r="293" ht="14.25" customHeight="1">
+      <c r="A293" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293" s="5">
+        <v>14.982</v>
+      </c>
+    </row>
+    <row r="294" ht="14.25" customHeight="1">
+      <c r="A294" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294" s="5">
+        <v>89.81082</v>
+      </c>
+    </row>
+    <row r="295" ht="14.25" customHeight="1">
+      <c r="A295" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295" s="5">
+        <v>104.77962</v>
+      </c>
+    </row>
+    <row r="296" ht="14.25" customHeight="1">
+      <c r="A296" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296" s="5">
+        <v>104.77962</v>
+      </c>
+    </row>
+    <row r="297" ht="14.25" customHeight="1">
+      <c r="A297" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297" s="5">
+        <v>449.056476</v>
+      </c>
+    </row>
+    <row r="298" ht="14.25" customHeight="1">
+      <c r="A298" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298" s="5">
+        <v>4.40635</v>
+      </c>
+    </row>
+    <row r="299" ht="14.25" customHeight="1">
+      <c r="A299" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299" s="5">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="300" ht="14.25" customHeight="1">
+      <c r="A300" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300" s="5">
+        <v>0.3429342</v>
+      </c>
+    </row>
+    <row r="301" ht="14.25" customHeight="1">
+      <c r="A301" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301" s="5">
+        <v>0.792</v>
+      </c>
+    </row>
+    <row r="302" ht="14.25" customHeight="1">
+      <c r="A302" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302" s="5">
+        <v>7.6466</v>
+      </c>
+    </row>
+    <row r="303" ht="14.25" customHeight="1">
+      <c r="A303" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="304" ht="14.25" customHeight="1">
+      <c r="A304" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304" s="5">
+        <v>449.05608</v>
+      </c>
+    </row>
+    <row r="305" ht="14.25" customHeight="1">
+      <c r="A305" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305" s="5">
+        <v>0.027066599</v>
+      </c>
+    </row>
+    <row r="306" ht="14.25" customHeight="1">
+      <c r="A306" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306" s="5">
+        <v>7.812</v>
+      </c>
+    </row>
+    <row r="307" ht="14.25" customHeight="1">
+      <c r="A307" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307" s="5">
+        <v>0.7161</v>
+      </c>
+    </row>
+    <row r="308" ht="14.25" customHeight="1">
+      <c r="A308" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308" s="5">
+        <v>8.07046</v>
+      </c>
+    </row>
+    <row r="309" ht="14.25" customHeight="1">
+      <c r="A309" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309" s="5">
+        <v>177.0</v>
+      </c>
+    </row>
+    <row r="310" ht="14.25" customHeight="1">
+      <c r="A310" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310" s="5">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="311" ht="14.25" customHeight="1">
+      <c r="A311" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311" s="5">
+        <v>511.513443</v>
+      </c>
+    </row>
+    <row r="312" ht="14.25" customHeight="1">
+      <c r="A312" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312" s="5">
+        <v>0.07835</v>
+      </c>
+    </row>
+    <row r="313" ht="14.25" customHeight="1">
+      <c r="A313" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313" s="5">
+        <v>2.2856</v>
+      </c>
+    </row>
+    <row r="314" ht="14.25" customHeight="1">
+      <c r="A314" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314" s="5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="315" ht="14.25" customHeight="1">
+      <c r="A315" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315" s="5">
+        <v>0.0292125</v>
+      </c>
+    </row>
+    <row r="316" ht="14.25" customHeight="1">
+      <c r="A316" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316" s="5">
+        <v>87.2616</v>
+      </c>
+    </row>
+    <row r="317" ht="14.25" customHeight="1">
+      <c r="A317" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317" s="5">
+        <v>59.8818633</v>
+      </c>
+    </row>
+    <row r="318" ht="14.25" customHeight="1">
+      <c r="A318" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318" s="5">
+        <v>113.352141</v>
+      </c>
+    </row>
+    <row r="319" ht="14.25" customHeight="1">
+      <c r="A319" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319" s="5">
+        <v>8.778</v>
+      </c>
+    </row>
+    <row r="320" ht="14.25" customHeight="1">
+      <c r="A320" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320" s="5">
+        <v>0.486</v>
+      </c>
+    </row>
+    <row r="321" ht="14.25" customHeight="1">
+      <c r="A321" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321" s="5">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="322" ht="14.25" customHeight="1">
+      <c r="A322" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322" s="5">
+        <v>471.7349</v>
+      </c>
+    </row>
+    <row r="323" ht="14.25" customHeight="1">
+      <c r="A323" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323" s="5">
+        <v>5850.0</v>
+      </c>
+    </row>
+    <row r="324" ht="14.25" customHeight="1">
+      <c r="A324" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324" s="5">
+        <v>112.77</v>
+      </c>
+    </row>
+    <row r="325" ht="14.25" customHeight="1">
+      <c r="A325" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325" s="5">
+        <v>36.284</v>
+      </c>
+    </row>
+    <row r="326" ht="14.25" customHeight="1">
+      <c r="A326" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="327" ht="14.25" customHeight="1">
+      <c r="A327" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327" s="5">
+        <v>128.52</v>
+      </c>
+    </row>
+    <row r="328" ht="14.25" customHeight="1">
+      <c r="A328" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328" s="5">
+        <v>47.2225</v>
+      </c>
+    </row>
+    <row r="329" ht="14.25" customHeight="1">
+      <c r="A329" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329" s="5">
+        <v>0.93522</v>
+      </c>
+    </row>
+    <row r="330" ht="14.25" customHeight="1">
+      <c r="A330" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330" s="5">
+        <v>0.58764</v>
+      </c>
+    </row>
+    <row r="331" ht="14.25" customHeight="1">
+      <c r="A331" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331" s="5">
+        <v>9.064</v>
+      </c>
+    </row>
+    <row r="332" ht="14.25" customHeight="1">
+      <c r="A332" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332" s="5">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="333" ht="14.25" customHeight="1">
+      <c r="A333" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333" s="5">
+        <v>73.84</v>
+      </c>
+    </row>
+    <row r="334" ht="14.25" customHeight="1">
+      <c r="A334" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334" s="5">
+        <v>0.124327</v>
+      </c>
+    </row>
+    <row r="335" ht="14.25" customHeight="1">
+      <c r="A335" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335" s="5">
+        <v>58.9667</v>
+      </c>
+    </row>
+    <row r="336" ht="14.25" customHeight="1">
+      <c r="A336" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336" s="5">
+        <v>560.0</v>
+      </c>
+    </row>
+    <row r="337" ht="14.25" customHeight="1">
+      <c r="A337" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337" s="5">
+        <v>0.0848208</v>
+      </c>
+    </row>
+    <row r="338" ht="14.25" customHeight="1">
+      <c r="A338" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338" s="5">
+        <v>3.7856E-4</v>
+      </c>
+    </row>
+    <row r="339" ht="14.25" customHeight="1">
+      <c r="A339" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339" s="5">
+        <v>5.21796</v>
+      </c>
+    </row>
+    <row r="340" ht="14.25" customHeight="1">
+      <c r="A340" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340" s="5">
+        <v>130.36</v>
+      </c>
+    </row>
+    <row r="341" ht="14.25" customHeight="1">
+      <c r="A341" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341" s="5">
+        <v>14537.63642</v>
+      </c>
+    </row>
+    <row r="342" ht="14.25" customHeight="1">
+      <c r="A342" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342" s="5">
+        <v>21.2779</v>
+      </c>
+    </row>
+    <row r="343" ht="14.25" customHeight="1">
+      <c r="A343" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343" s="5">
+        <v>7.994</v>
+      </c>
+    </row>
+    <row r="344" ht="14.25" customHeight="1">
+      <c r="A344" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344" s="5">
+        <v>1.121184</v>
+      </c>
+    </row>
+    <row r="345" ht="14.25" customHeight="1">
+      <c r="A345" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345" s="5">
+        <v>38135.6825</v>
+      </c>
+    </row>
+    <row r="346" ht="14.25" customHeight="1">
+      <c r="A346" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346" s="5">
+        <v>35.17525881</v>
+      </c>
+    </row>
+    <row r="347" ht="14.25" customHeight="1">
+      <c r="A347" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347" s="5">
+        <v>295.6512656</v>
+      </c>
+    </row>
+    <row r="348" ht="14.25" customHeight="1">
+      <c r="A348" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348" s="5">
+        <v>11.7324</v>
+      </c>
+    </row>
+    <row r="349" ht="14.25" customHeight="1">
+      <c r="A349" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349" s="5">
+        <v>40.7375</v>
+      </c>
+    </row>
+    <row r="350" ht="14.25" customHeight="1">
+      <c r="A350" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350" s="5">
+        <v>2.912</v>
+      </c>
+    </row>
+    <row r="351" ht="14.25" customHeight="1">
+      <c r="A351" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351" s="5">
+        <v>144.0</v>
+      </c>
+    </row>
+    <row r="352" ht="14.25" customHeight="1">
+      <c r="A352" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352" s="5">
+        <v>42.63746</v>
+      </c>
+    </row>
+    <row r="353" ht="14.25" customHeight="1">
+      <c r="A353" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353" s="5">
+        <v>0.389376</v>
+      </c>
+    </row>
+    <row r="354" ht="14.25" customHeight="1">
+      <c r="A354" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="355" ht="14.25" customHeight="1">
+      <c r="A355" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355" s="5">
+        <v>0.29652</v>
+      </c>
+    </row>
+    <row r="356" ht="14.25" customHeight="1">
+      <c r="A356" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356" s="5">
+        <v>96.765</v>
+      </c>
+    </row>
+    <row r="357" ht="14.25" customHeight="1">
+      <c r="A357" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357" s="5">
+        <v>0.00294</v>
+      </c>
+    </row>
+    <row r="358" ht="14.25" customHeight="1">
+      <c r="A358" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358" s="6">
+        <v>11.08289</v>
+      </c>
+    </row>
+    <row r="359" ht="14.25" customHeight="1">
+      <c r="A359" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359" s="5">
+        <v>0.30816</v>
+      </c>
+    </row>
+    <row r="360" ht="14.25" customHeight="1">
+      <c r="A360" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360" s="5">
+        <v>0.1696</v>
+      </c>
+    </row>
+    <row r="361" ht="14.25" customHeight="1">
+      <c r="A361" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361" s="5">
+        <v>384.2758</v>
+      </c>
+    </row>
+    <row r="362" ht="14.25" customHeight="1">
+      <c r="A362" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B362" s="5">
+        <v>1.0270196</v>
+      </c>
+    </row>
+    <row r="363" ht="14.25" customHeight="1">
+      <c r="A363" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B363" s="5">
+        <v>213.5511136</v>
+      </c>
+    </row>
+    <row r="364" ht="14.25" customHeight="1">
+      <c r="A364" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364" s="5">
+        <v>2.109</v>
+      </c>
+    </row>
+    <row r="365" ht="14.25" customHeight="1">
+      <c r="A365" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B365" s="5">
+        <v>16.1616</v>
+      </c>
+    </row>
+    <row r="366" ht="14.25" customHeight="1">
+      <c r="A366" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B366" s="5">
+        <v>0.9048</v>
+      </c>
+    </row>
+    <row r="367" ht="14.25" customHeight="1">
+      <c r="A367" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B367" s="5">
+        <v>2561.461072</v>
+      </c>
+    </row>
+    <row r="368" ht="14.25" customHeight="1">
+      <c r="A368" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B368" s="5">
+        <v>170.028628</v>
+      </c>
+    </row>
+    <row r="369" ht="14.25" customHeight="1">
+      <c r="A369" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B369" s="5">
+        <v>0.0615</v>
+      </c>
+    </row>
+    <row r="370" ht="14.25" customHeight="1">
+      <c r="A370" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370" s="5">
+        <v>0.365103</v>
+      </c>
+    </row>
+    <row r="371" ht="14.25" customHeight="1">
+      <c r="A371" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371" s="5">
+        <v>0.132</v>
+      </c>
+    </row>
+    <row r="372" ht="14.25" customHeight="1">
+      <c r="A372" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372" s="5">
+        <v>0.00813248</v>
+      </c>
+    </row>
+    <row r="373" ht="14.25" customHeight="1">
+      <c r="A373" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373" s="6">
+        <v>44.225</v>
+      </c>
+    </row>
+    <row r="374" ht="14.25" customHeight="1">
+      <c r="A374" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374" s="5">
+        <v>67.17816</v>
+      </c>
+    </row>
+    <row r="375" ht="14.25" customHeight="1">
+      <c r="A375" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375" s="5">
+        <v>7.65676</v>
+      </c>
+    </row>
+    <row r="376" ht="14.25" customHeight="1">
+      <c r="A376" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376" s="5">
+        <v>14.9762</v>
+      </c>
+    </row>
+    <row r="377" ht="14.25" customHeight="1">
+      <c r="A377" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377" s="5">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="378" ht="14.25" customHeight="1">
+      <c r="A378" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378" s="5">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="379" ht="14.25" customHeight="1">
+      <c r="A379" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379" s="5">
+        <v>3864.607248</v>
+      </c>
+    </row>
+    <row r="380" ht="14.25" customHeight="1">
+      <c r="A380" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380" s="5">
+        <v>16.65</v>
+      </c>
+    </row>
+    <row r="381" ht="14.25" customHeight="1">
+      <c r="A381" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381" s="5">
+        <v>0.453684</v>
+      </c>
+    </row>
+    <row r="382" ht="14.25" customHeight="1">
+      <c r="A382" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382" s="5">
+        <v>5.7464</v>
+      </c>
+    </row>
+    <row r="383" ht="14.25" customHeight="1">
+      <c r="A383" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383" s="5">
+        <v>6.641448</v>
+      </c>
+    </row>
+    <row r="384" ht="14.25" customHeight="1">
+      <c r="A384" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384" s="5">
+        <v>4.1468</v>
+      </c>
+    </row>
+    <row r="385" ht="14.25" customHeight="1">
+      <c r="A385" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385" s="5">
+        <v>4127.5</v>
+      </c>
+    </row>
+    <row r="386" ht="14.25" customHeight="1">
+      <c r="A386" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386" s="5">
+        <v>71.926496</v>
+      </c>
+    </row>
+    <row r="387" ht="14.25" customHeight="1">
+      <c r="A387" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387" s="5">
+        <v>22.6784</v>
+      </c>
+    </row>
+    <row r="388" ht="14.25" customHeight="1">
+      <c r="A388" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388" s="5">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="389" ht="14.25" customHeight="1">
+      <c r="A389" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B389" s="5">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="390" ht="14.25" customHeight="1">
+      <c r="A390" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390" s="5">
+        <v>15.708</v>
+      </c>
+    </row>
+    <row r="391" ht="14.25" customHeight="1">
+      <c r="A391" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391" s="5">
+        <v>217.72</v>
+      </c>
+    </row>
+    <row r="392" ht="14.25" customHeight="1">
+      <c r="A392" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392" s="5">
+        <v>42.69080218</v>
+      </c>
+    </row>
+    <row r="393" ht="14.25" customHeight="1">
+      <c r="A393" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393" s="5">
+        <v>2.3999988</v>
+      </c>
+    </row>
+    <row r="394" ht="14.25" customHeight="1">
+      <c r="A394" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394" s="5">
+        <v>35.85395</v>
+      </c>
+    </row>
+    <row r="395" ht="14.25" customHeight="1">
+      <c r="A395" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395" s="5">
+        <v>5.541065</v>
+      </c>
+    </row>
+    <row r="396" ht="14.25" customHeight="1">
+      <c r="A396" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396" s="5">
+        <v>10.57488</v>
+      </c>
+    </row>
+    <row r="397" ht="14.25" customHeight="1">
+      <c r="A397" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397" s="5">
+        <v>3.426</v>
+      </c>
+    </row>
+    <row r="398" ht="14.25" customHeight="1">
+      <c r="A398" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398" s="5">
+        <v>211.484</v>
+      </c>
+    </row>
+    <row r="399" ht="14.25" customHeight="1">
+      <c r="A399" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399" s="5">
+        <v>205010.7769</v>
+      </c>
+    </row>
+    <row r="400" ht="14.25" customHeight="1">
+      <c r="A400" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400" s="5">
+        <v>664.664</v>
+      </c>
+    </row>
+    <row r="401" ht="14.25" customHeight="1">
+      <c r="A401" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401" s="5">
+        <v>1490.68881</v>
+      </c>
+    </row>
+    <row r="402" ht="14.25" customHeight="1">
+      <c r="A402" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402" s="5">
+        <v>18.8964777</v>
+      </c>
+    </row>
+    <row r="403" ht="14.25" customHeight="1">
+      <c r="A403" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403" s="5">
+        <v>222.2591</v>
+      </c>
+    </row>
+    <row r="404" ht="14.25" customHeight="1">
+      <c r="A404" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404" s="5">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="405" ht="14.25" customHeight="1">
+      <c r="A405" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405" s="5">
+        <v>9.693</v>
+      </c>
+    </row>
+    <row r="406" ht="14.25" customHeight="1">
+      <c r="A406" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406" s="5">
+        <v>0.8194</v>
+      </c>
+    </row>
+    <row r="407" ht="14.25" customHeight="1">
+      <c r="A407" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407" s="5">
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="408" ht="14.25" customHeight="1">
+      <c r="A408" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408" s="5">
+        <v>362.872</v>
+      </c>
+    </row>
+    <row r="409" ht="14.25" customHeight="1">
+      <c r="A409" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409" s="5">
+        <v>0.0301</v>
+      </c>
+    </row>
+    <row r="410" ht="14.25" customHeight="1">
+      <c r="A410" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410" s="5">
+        <v>149.6844</v>
+      </c>
+    </row>
+    <row r="411" ht="14.25" customHeight="1">
+      <c r="A411" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411" s="5">
+        <v>310.2</v>
+      </c>
+    </row>
+    <row r="412" ht="14.25" customHeight="1">
+      <c r="A412" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412" s="5">
+        <v>1578.48</v>
+      </c>
+    </row>
+    <row r="413" ht="14.25" customHeight="1">
+      <c r="A413" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413" s="5">
+        <v>4898.76</v>
+      </c>
+    </row>
+    <row r="414" ht="14.25" customHeight="1">
+      <c r="A414" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414" s="5">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="415" ht="14.25" customHeight="1">
+      <c r="A415" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415" s="5">
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="416" ht="14.25" customHeight="1">
+      <c r="A416" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416" s="5">
+        <v>408.228</v>
+      </c>
+    </row>
+    <row r="417" ht="14.25" customHeight="1">
+      <c r="A417" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417" s="5">
+        <v>25.48</v>
+      </c>
+    </row>
     <row r="418" ht="14.25" customHeight="1"/>
     <row r="419" ht="14.25" customHeight="1"/>
     <row r="420" ht="14.25" customHeight="1"/>
@@ -1496,7 +5468,6 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
